--- a/biology/Botanique/Oryza_eichingeri/Oryza_eichingeri.xlsx
+++ b/biology/Botanique/Oryza_eichingeri/Oryza_eichingeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oryza eichingeri est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], originaire d'Afrique et du Sri Lanka. 
-Ce sont des plantes herbacées vivaces aux rhizomes courts et au tiges (chaumes) dressées, pouvant atteindre 60 à 100 cm de long[2].
-Cette espèce au génome diploïde du type CC a été rattachée au complexe d'espèces Oryza officinalis[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oryza eichingeri est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire d'Afrique et du Sri Lanka. 
+Ce sont des plantes herbacées vivaces aux rhizomes courts et au tiges (chaumes) dressées, pouvant atteindre 60 à 100 cm de long.
+Cette espèce au génome diploïde du type CC a été rattachée au complexe d'espèces Oryza officinalis.
 </t>
         </is>
       </c>
@@ -515,16 +527,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (22 avril 2017)[4] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 avril 2017) :
 Oryza collina (Trimen) S.D.Sharma &amp; Shastry
 Oryza glauca Robyns, nom. nud.
 Oryza latifolia var. collina (Trimen) Hook.f.
 Oryza rhizomatis D.A.Vaughan
 Oryza sativa var. collina Trimen
-Oryza ubanghensis A.Chev.,
-Liste des variétés
-Selon Tropicos                                           (22 avril 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Oryza ubanghensis A.Chev.,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oryza_eichingeri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oryza_eichingeri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Oryza eichingeri var. eichingeri
 variété Oryza eichingeri var. longearistata Peter</t>
         </is>
